--- a/CISS_rc/apps/rc_self/rc_基本面边际信息.xlsx
+++ b/CISS_rc/apps/rc_self/rc_基本面边际信息.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zd_zxjtzq\ciss_web\CISS_rc\apps\rc_self\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B235A7AA-D109-4453-B0AC-44F6298C0264}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D75809A-3FD0-4BD8-8D34-FC11282225DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="admin" sheetId="2" r:id="rId1"/>
     <sheet name="上课笔记" sheetId="6" r:id="rId2"/>
-    <sheet name="主题投资" sheetId="5" r:id="rId3"/>
-    <sheet name="行业" sheetId="4" r:id="rId4"/>
-    <sheet name="股票" sheetId="1" r:id="rId5"/>
-    <sheet name="基金" sheetId="3" r:id="rId6"/>
+    <sheet name="机器人项目" sheetId="8" r:id="rId3"/>
+    <sheet name="AI" sheetId="7" r:id="rId4"/>
+    <sheet name="主题投资" sheetId="5" r:id="rId5"/>
+    <sheet name="行业" sheetId="4" r:id="rId6"/>
+    <sheet name="股票" sheetId="1" r:id="rId7"/>
+    <sheet name="基金" sheetId="3" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="236">
   <si>
     <t>事件发生日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -508,6 +510,462 @@
   </si>
   <si>
     <t>200亿人民币这个数字对于中国集成电路设计行业来说，实在是太惊人了，2018年全中国集成电路设计业销售收入也才2519.3亿元，该行业的研发强度一般比较高，都在10%-15%左右，实际上按照15%的高位计算，全行业研发投入2018年在大约377.9亿人民币。集成电路设计企业的HR们，在2018年的校招应该体会到了，因为华为海思大幅度提高了校招的待遇，带动了当年集成电路企业的校招待遇普遍性的上涨。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指数投资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动量化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题指数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题指数，smart beta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行业规范</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关键词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中证可持续发展100指数</t>
+  </si>
+  <si>
+    <t>中证可持续发展100指数将于11月15日正式发布。中国证券报记者获悉，该指数基于社会价值投资联盟（简称＂社投盟＂)长期关于可持续发展研究提供的成果和数据，由博时基金定制、中证指数有限公司编制，被认为是促进可持续发展的金融创新产品。其不仅在原有E（环境）、S（社会）、G（治理）基础上增加了新的经济效益（E）评估维度，而且将社会（Social）指标结合中国实际情况，进行了改良，最终形成3A（Aim、Approach、Action）的评估框架，以沪深300指数的成分股为样本池，评选出其中100只在经济、社会、环境、治理方面综合价值高的上市公司，反映符合可持续发展投资理念的A股上市公司的整体表现，旨在为投资者找到长期可持续的优质投资标的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博时基金，社会价值投资联盟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>todo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,做一个个股和行业的标准模板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化模型入门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌握程度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋洁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过度拟合、随机性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故事方式；下一节课张琦？老师讲矢量；再下一节课建行业界老师讲实证；再下一次小组作业——期末考试报告形式，优化相关就好；
+这门课2年开一次，让大家有个概念就好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，最优停止理论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医疗+互联网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好大夫平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据分析，匹配患者和大夫；有同学提到体检项目资源不匹配；夫妻研究医疗数据获得诺贝尔奖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去华西医院做互联网+医疗课题；
+现在很多研究重点是基于门诊和病历的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机器人创新实践</t>
+  </si>
+  <si>
+    <t>课程</t>
+  </si>
+  <si>
+    <t>谢广民</t>
+  </si>
+  <si>
+    <t>课后写代码？作业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>养老金不够用；日本已经不准再建养老院，因为建的成本太高，且管理机制导致养老院希望入住的老人快点变痴呆，这样成本低但是又可以一直赚养老金；而且日本老人的房子也卖不出去，政府开始鼓励在家养老</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北大动静很大，喜欢总喊新口号；清华不说直接做了，口号没提但是已经做了很多事。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北大校庆，xie做了空中和水里机器人都挺好的，但是陆地上的智能车设计出了问题，像灵车，领导写检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清北之争：工业企业有钱，横向项目校友很好找；05年开始东边建工学院新大楼现在还没建起来，现在希望工学院搬家到远的小区；现在传统领域没法和清华的强项竞争。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>领导视察，理科论文没法看，工科机器人容易展示，给过很多国家领导人看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作业：机器人or自动化系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下周汇报；目标：1，点亮led灯；把工具箱带回家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李贺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组件例子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3，和电脑的联系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Idea：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，书包后边转向LED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2，内部功能键：主板、声音IN/OUT模块:音乐or对话;电路电线；数字、温度、LED发光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，外形：传统实物：花盆、纸板箱、按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温度；气体、气压、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，主控板只有一个口可以和电线连接，在开关旁边</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2，电线和USB连接后可以讲程序复制进主控板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有模块和实物一一对应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，淘宝店：  https://shop69712475.taobao.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2，论坛    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.arduino.cn/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供暖费：1132.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供暖公司电话：18101173517</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2，传感器，倒计时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，第一次作业偏技术=功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2，第二次偏艺术+功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>idea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，分5个步骤开门，先手加热温度；2，旋钮一定数字范围；3，按钮组合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2，数字调整到第一个区间，再去第二个区间，再去blabla；其间没有提示。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2，物理动作；电机开门，转90度开门或者卷帘转好几圈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，软件代码：密码开门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3，不一定要门，也可以是小盒子，钱包，真门，模型门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3，self</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1，减肥控制；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4，选择：重置密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品1——期中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5，ppt要有个故事作为背景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮，多按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋钮</t>
+  </si>
+  <si>
+    <t>开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>声音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红外线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>步骤：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语音合成：预置拼音，会发声音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2，声音合成提示：需要在20秒内解开锁，否则报警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3，音乐模块放背景音乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一、开场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4，提示问题一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5，提示问题二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6，提示问题三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三、成功或失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，成功情景：音乐3，开门露出钥匙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2，失败情景：音乐2，报警：“喂，110“</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(随机)问题选项：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，按按钮，开始30秒倒计时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火焰检测：上一个问题答对后，打开小门露出打火机，需要探索发现传感器在的地方触发火焰检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二、解题：成功后点亮一盏灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16*16屏幕依次显示3个随机数字+数字区间-1秒后消失；旋钮加第一个随机数字属于一个数字区间，比如50+60属于【100，150】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED灯依次显示4种随机颜色(可以用随机数字控制）-每种颜色0.5秒，通过”键盘阵列“多按钮按顺序输入四种颜色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侧面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>底面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16*16显示器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倒计时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火焰感应器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侧门：打火机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED灯条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>键盘阵列“多按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迷惑部件1</t>
+  </si>
+  <si>
+    <t>迷惑部件2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迷惑部件3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -515,7 +973,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -538,8 +996,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -558,8 +1048,92 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -567,12 +1141,92 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -605,6 +1259,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -886,10 +1614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F918423-010F-4614-B17E-3126799FF15D}">
-  <dimension ref="A3:B5"/>
+  <dimension ref="A3:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -908,6 +1636,14 @@
       </c>
       <c r="B5" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -918,48 +1654,53 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F08FA63-D3E1-4162-9CF5-C03A5DE244CC}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5546875" customWidth="1"/>
-    <col min="5" max="5" width="22.33203125" customWidth="1"/>
-    <col min="6" max="6" width="42.6640625" customWidth="1"/>
-    <col min="7" max="7" width="32" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" customWidth="1"/>
+    <col min="7" max="7" width="42.6640625" customWidth="1"/>
+    <col min="8" max="8" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" s="16" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J1" s="16"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>20191026</v>
       </c>
@@ -972,49 +1713,55 @@
       <c r="D2" t="s">
         <v>103</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="G2" t="s">
         <v>97</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>94</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E3" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
         <v>96</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E4" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
         <v>105</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>94</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="I4" s="12" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E5" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
         <v>98</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="E6" s="13" t="s">
+    <row r="6" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="F6" s="13" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>20191027</v>
       </c>
@@ -1027,32 +1774,135 @@
       <c r="D8" t="s">
         <v>111</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="G8" s="13" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="F9" s="13" t="s">
+    <row r="9" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="G9" s="13" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="E10" t="s">
+    <row r="10" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
         <v>114</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="G10" s="13" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="F11" s="13" t="s">
+    <row r="11" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="G11" s="13" t="s">
         <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>20191026</v>
+      </c>
+      <c r="B12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" t="s">
+        <v>139</v>
+      </c>
+      <c r="F12" t="s">
+        <v>140</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>145</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>20191103</v>
+      </c>
+      <c r="B16" t="s">
+        <v>148</v>
+      </c>
+      <c r="C16" t="s">
+        <v>149</v>
+      </c>
+      <c r="D16" t="s">
+        <v>150</v>
+      </c>
+      <c r="F16" t="s">
+        <v>151</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="G17" s="13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="G18" s="13" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="G19" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="G20" s="13" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="F21" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20191103</v>
+      </c>
+      <c r="B22" t="s">
+        <v>148</v>
+      </c>
+      <c r="C22" t="s">
+        <v>149</v>
+      </c>
+      <c r="D22" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H4" r:id="rId1" xr:uid="{ECBD881A-16C4-4953-A674-503E8EABD5B0}"/>
+    <hyperlink ref="I4" r:id="rId1" xr:uid="{ECBD881A-16C4-4953-A674-503E8EABD5B0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -1060,10 +1910,623 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74DD8C19-349A-49DE-904E-1C1146B38831}">
+  <dimension ref="A2:R40"/>
+  <sheetViews>
+    <sheetView topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23:R39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="12" max="12" width="40" customWidth="1"/>
+    <col min="13" max="13" width="13.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="L2" s="18"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>179</v>
+      </c>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>180</v>
+      </c>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B6" t="s">
+        <v>165</v>
+      </c>
+      <c r="L6" s="18" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L7" s="18" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>161</v>
+      </c>
+      <c r="K9" t="s">
+        <v>181</v>
+      </c>
+      <c r="L9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L10" s="18" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L11" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L12" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>167</v>
+      </c>
+      <c r="B13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K15" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L16" t="s">
+        <v>193</v>
+      </c>
+      <c r="M16" t="s">
+        <v>194</v>
+      </c>
+      <c r="N16" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17" t="s">
+        <v>197</v>
+      </c>
+      <c r="N17" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L18" t="s">
+        <v>198</v>
+      </c>
+      <c r="N18" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L19" t="s">
+        <v>199</v>
+      </c>
+      <c r="N19" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L20" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L21" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>173</v>
+      </c>
+      <c r="K23" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="L23" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="22"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>174</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="K24" s="23"/>
+      <c r="L24" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="25"/>
+      <c r="R24" s="26"/>
+    </row>
+    <row r="25" spans="1:18" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="K25" s="23"/>
+      <c r="L25" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="M25" s="25"/>
+      <c r="N25" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="O25" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="30"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K26" s="23"/>
+      <c r="L26" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="M26" s="25"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="29"/>
+      <c r="R26" s="30"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K27" s="23"/>
+      <c r="L27" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="M27" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="N27" s="32"/>
+      <c r="O27" s="32"/>
+      <c r="P27" s="32"/>
+      <c r="Q27" s="32"/>
+      <c r="R27" s="30" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K28" s="23"/>
+      <c r="L28" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="M28" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="N28" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="O28" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="P28" s="36" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q28" s="36"/>
+      <c r="R28" s="37" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>170</v>
+      </c>
+      <c r="K29" s="23"/>
+      <c r="L29" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="M29" s="33"/>
+      <c r="N29" s="34"/>
+      <c r="O29" s="35"/>
+      <c r="P29" s="36"/>
+      <c r="Q29" s="36"/>
+      <c r="R29" s="37"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K30" s="23"/>
+      <c r="L30" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="M30" s="33"/>
+      <c r="N30" s="34"/>
+      <c r="O30" s="35"/>
+      <c r="P30" s="36"/>
+      <c r="Q30" s="36"/>
+      <c r="R30" s="37"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K31" s="23"/>
+      <c r="L31" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="M31" s="33"/>
+      <c r="N31" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="O31" s="32"/>
+      <c r="P31" s="36"/>
+      <c r="Q31" s="36"/>
+      <c r="R31" s="37"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K32" s="23"/>
+      <c r="L32" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="M32" s="33"/>
+      <c r="N32" s="38"/>
+      <c r="O32" s="32"/>
+      <c r="P32" s="36"/>
+      <c r="Q32" s="36"/>
+      <c r="R32" s="30"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K33" s="23"/>
+      <c r="L33" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="M33" s="33"/>
+      <c r="N33" s="38"/>
+      <c r="O33" s="32"/>
+      <c r="P33" s="36"/>
+      <c r="Q33" s="36"/>
+      <c r="R33" s="30"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>162</v>
+      </c>
+      <c r="K34" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="L34" s="40"/>
+      <c r="M34" s="41" t="s">
+        <v>231</v>
+      </c>
+      <c r="N34" s="41"/>
+      <c r="O34" s="41"/>
+      <c r="P34" s="41"/>
+      <c r="Q34" s="41"/>
+      <c r="R34" s="30"/>
+    </row>
+    <row r="35" spans="1:18" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>163</v>
+      </c>
+      <c r="K35" s="42">
+        <v>1</v>
+      </c>
+      <c r="L35" s="43" t="s">
+        <v>218</v>
+      </c>
+      <c r="M35" s="44" t="s">
+        <v>227</v>
+      </c>
+      <c r="N35" s="44"/>
+      <c r="O35" s="45"/>
+      <c r="P35" s="32"/>
+      <c r="Q35" s="46" t="s">
+        <v>233</v>
+      </c>
+      <c r="R35" s="30"/>
+    </row>
+    <row r="36" spans="1:18" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>178</v>
+      </c>
+      <c r="K36" s="42">
+        <v>2</v>
+      </c>
+      <c r="L36" s="43" t="s">
+        <v>216</v>
+      </c>
+      <c r="M36" s="44"/>
+      <c r="N36" s="44"/>
+      <c r="O36" s="32"/>
+      <c r="P36" s="46" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q36" s="32"/>
+      <c r="R36" s="30"/>
+    </row>
+    <row r="37" spans="1:18" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="K37" s="42">
+        <v>3</v>
+      </c>
+      <c r="L37" s="47" t="s">
+        <v>219</v>
+      </c>
+      <c r="M37" s="44"/>
+      <c r="N37" s="44"/>
+      <c r="O37" s="32"/>
+      <c r="P37" s="32"/>
+      <c r="Q37" s="46" t="s">
+        <v>235</v>
+      </c>
+      <c r="R37" s="48"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K38" s="49"/>
+      <c r="L38" s="25"/>
+      <c r="M38" s="25"/>
+      <c r="N38" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="O38" s="31"/>
+      <c r="P38" s="31"/>
+      <c r="Q38" s="31"/>
+      <c r="R38" s="30"/>
+    </row>
+    <row r="39" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E39" t="s">
+        <v>177</v>
+      </c>
+      <c r="K39" s="50"/>
+      <c r="L39" s="51"/>
+      <c r="M39" s="51"/>
+      <c r="N39" s="52"/>
+      <c r="O39" s="52"/>
+      <c r="P39" s="52"/>
+      <c r="Q39" s="52"/>
+      <c r="R39" s="53"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
+        <v>176</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="M28:M33"/>
+    <mergeCell ref="N28:N30"/>
+    <mergeCell ref="N31:N33"/>
+    <mergeCell ref="M35:N37"/>
+    <mergeCell ref="R28:R31"/>
+    <mergeCell ref="O25:Q26"/>
+    <mergeCell ref="O28:O30"/>
+    <mergeCell ref="M34:Q34"/>
+    <mergeCell ref="P28:Q33"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C24" r:id="rId1" xr:uid="{E17C0066-07DB-40D9-8050-C486091DFF46}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7C63BA2-0051-4E59-B639-5D73C864143A}">
+  <dimension ref="A1:O7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" customWidth="1"/>
+    <col min="5" max="5" width="68.44140625" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" customWidth="1"/>
+    <col min="15" max="15" width="12.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="O1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>20191101</v>
+      </c>
+      <c r="B2" s="3">
+        <v>20191115</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="O2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="O3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="O4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="O5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="O6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AAA1683-89A8-48A7-AE24-ACFF97466057}">
   <dimension ref="A2:R38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -1746,7 +3209,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5330588A-F3AA-4900-89DA-050BA661BD87}">
   <dimension ref="A2:O32"/>
   <sheetViews>
@@ -2383,7 +3846,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:N9"/>
   <sheetViews>
@@ -2633,7 +4096,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05B7DB0B-7E97-4BC8-AD31-61EF83C526AE}">
   <dimension ref="A1:M126"/>
   <sheetViews>

--- a/CISS_rc/apps/rc_self/rc_基本面边际信息.xlsx
+++ b/CISS_rc/apps/rc_self/rc_基本面边际信息.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zd_zxjtzq\ciss_web\CISS_rc\apps\rc_self\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D75809A-3FD0-4BD8-8D34-FC11282225DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9432DE1-7A90-4F8E-9595-5BBC35299E50}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="admin" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="244">
   <si>
     <t>事件发生日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -967,6 +967,37 @@
   <si>
     <t>迷惑部件3</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000768.SZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中航飞机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>军工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018年2月至今在底部震荡了快2年，PE偏高，未来可能会有事件性机会，主要看是否有放量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞机起落架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上证G60创新综合指数和上证G60战略新兴产业成份指数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上证G60创新综合指数</t>
   </si>
 </sst>
 </file>
@@ -1280,43 +1311,16 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1333,6 +1337,33 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1656,7 +1687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F08FA63-D3E1-4162-9CF5-C03A5DE244CC}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
     </sheetView>
@@ -1914,7 +1945,7 @@
   <dimension ref="A2:R40"/>
   <sheetViews>
     <sheetView topLeftCell="B22" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23:R39"/>
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2120,12 +2151,12 @@
       <c r="N25" s="28" t="s">
         <v>223</v>
       </c>
-      <c r="O25" s="29" t="s">
+      <c r="O25" s="45" t="s">
         <v>229</v>
       </c>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="29"/>
-      <c r="R25" s="30"/>
+      <c r="P25" s="45"/>
+      <c r="Q25" s="45"/>
+      <c r="R25" s="29"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="K26" s="23"/>
@@ -2133,25 +2164,25 @@
         <v>206</v>
       </c>
       <c r="M26" s="25"/>
-      <c r="N26" s="31"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="29"/>
-      <c r="R26" s="30"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="45"/>
+      <c r="P26" s="45"/>
+      <c r="Q26" s="45"/>
+      <c r="R26" s="29"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="K27" s="23"/>
       <c r="L27" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="M27" s="32" t="s">
+      <c r="M27" s="31" t="s">
         <v>222</v>
       </c>
-      <c r="N27" s="32"/>
-      <c r="O27" s="32"/>
-      <c r="P27" s="32"/>
-      <c r="Q27" s="32"/>
-      <c r="R27" s="30" t="s">
+      <c r="N27" s="31"/>
+      <c r="O27" s="31"/>
+      <c r="P27" s="31"/>
+      <c r="Q27" s="31"/>
+      <c r="R27" s="29" t="s">
         <v>220</v>
       </c>
     </row>
@@ -2160,20 +2191,20 @@
       <c r="L28" s="24" t="s">
         <v>208</v>
       </c>
-      <c r="M28" s="33" t="s">
+      <c r="M28" s="49" t="s">
         <v>224</v>
       </c>
-      <c r="N28" s="34" t="s">
+      <c r="N28" s="50" t="s">
         <v>225</v>
       </c>
-      <c r="O28" s="35" t="s">
+      <c r="O28" s="46" t="s">
         <v>230</v>
       </c>
-      <c r="P28" s="36" t="s">
+      <c r="P28" s="48" t="s">
         <v>232</v>
       </c>
-      <c r="Q28" s="36"/>
-      <c r="R28" s="37" t="s">
+      <c r="Q28" s="48"/>
+      <c r="R28" s="53" t="s">
         <v>228</v>
       </c>
     </row>
@@ -2185,12 +2216,12 @@
       <c r="L29" s="24" t="s">
         <v>209</v>
       </c>
-      <c r="M29" s="33"/>
-      <c r="N29" s="34"/>
-      <c r="O29" s="35"/>
-      <c r="P29" s="36"/>
-      <c r="Q29" s="36"/>
-      <c r="R29" s="37"/>
+      <c r="M29" s="49"/>
+      <c r="N29" s="50"/>
+      <c r="O29" s="46"/>
+      <c r="P29" s="48"/>
+      <c r="Q29" s="48"/>
+      <c r="R29" s="53"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -2203,148 +2234,148 @@
       <c r="L30" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="M30" s="33"/>
-      <c r="N30" s="34"/>
-      <c r="O30" s="35"/>
-      <c r="P30" s="36"/>
-      <c r="Q30" s="36"/>
-      <c r="R30" s="37"/>
+      <c r="M30" s="49"/>
+      <c r="N30" s="50"/>
+      <c r="O30" s="46"/>
+      <c r="P30" s="48"/>
+      <c r="Q30" s="48"/>
+      <c r="R30" s="53"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="K31" s="23"/>
       <c r="L31" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="M31" s="33"/>
-      <c r="N31" s="38" t="s">
+      <c r="M31" s="49"/>
+      <c r="N31" s="51" t="s">
         <v>226</v>
       </c>
-      <c r="O31" s="32"/>
-      <c r="P31" s="36"/>
-      <c r="Q31" s="36"/>
-      <c r="R31" s="37"/>
+      <c r="O31" s="31"/>
+      <c r="P31" s="48"/>
+      <c r="Q31" s="48"/>
+      <c r="R31" s="53"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="K32" s="23"/>
       <c r="L32" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="M32" s="33"/>
-      <c r="N32" s="38"/>
-      <c r="O32" s="32"/>
-      <c r="P32" s="36"/>
-      <c r="Q32" s="36"/>
-      <c r="R32" s="30"/>
+      <c r="M32" s="49"/>
+      <c r="N32" s="51"/>
+      <c r="O32" s="31"/>
+      <c r="P32" s="48"/>
+      <c r="Q32" s="48"/>
+      <c r="R32" s="29"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="K33" s="23"/>
       <c r="L33" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="M33" s="33"/>
-      <c r="N33" s="38"/>
-      <c r="O33" s="32"/>
-      <c r="P33" s="36"/>
-      <c r="Q33" s="36"/>
-      <c r="R33" s="30"/>
+      <c r="M33" s="49"/>
+      <c r="N33" s="51"/>
+      <c r="O33" s="31"/>
+      <c r="P33" s="48"/>
+      <c r="Q33" s="48"/>
+      <c r="R33" s="29"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>162</v>
       </c>
-      <c r="K34" s="39" t="s">
+      <c r="K34" s="32" t="s">
         <v>214</v>
       </c>
-      <c r="L34" s="40"/>
-      <c r="M34" s="41" t="s">
+      <c r="L34" s="33"/>
+      <c r="M34" s="47" t="s">
         <v>231</v>
       </c>
-      <c r="N34" s="41"/>
-      <c r="O34" s="41"/>
-      <c r="P34" s="41"/>
-      <c r="Q34" s="41"/>
-      <c r="R34" s="30"/>
+      <c r="N34" s="47"/>
+      <c r="O34" s="47"/>
+      <c r="P34" s="47"/>
+      <c r="Q34" s="47"/>
+      <c r="R34" s="29"/>
     </row>
     <row r="35" spans="1:18" ht="41.4" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>163</v>
       </c>
-      <c r="K35" s="42">
+      <c r="K35" s="34">
         <v>1</v>
       </c>
-      <c r="L35" s="43" t="s">
+      <c r="L35" s="35" t="s">
         <v>218</v>
       </c>
-      <c r="M35" s="44" t="s">
+      <c r="M35" s="52" t="s">
         <v>227</v>
       </c>
-      <c r="N35" s="44"/>
-      <c r="O35" s="45"/>
-      <c r="P35" s="32"/>
-      <c r="Q35" s="46" t="s">
+      <c r="N35" s="52"/>
+      <c r="O35" s="36"/>
+      <c r="P35" s="31"/>
+      <c r="Q35" s="37" t="s">
         <v>233</v>
       </c>
-      <c r="R35" s="30"/>
+      <c r="R35" s="29"/>
     </row>
     <row r="36" spans="1:18" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>178</v>
       </c>
-      <c r="K36" s="42">
+      <c r="K36" s="34">
         <v>2</v>
       </c>
-      <c r="L36" s="43" t="s">
+      <c r="L36" s="35" t="s">
         <v>216</v>
       </c>
-      <c r="M36" s="44"/>
-      <c r="N36" s="44"/>
-      <c r="O36" s="32"/>
-      <c r="P36" s="46" t="s">
+      <c r="M36" s="52"/>
+      <c r="N36" s="52"/>
+      <c r="O36" s="31"/>
+      <c r="P36" s="37" t="s">
         <v>234</v>
       </c>
-      <c r="Q36" s="32"/>
-      <c r="R36" s="30"/>
+      <c r="Q36" s="31"/>
+      <c r="R36" s="29"/>
     </row>
     <row r="37" spans="1:18" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="K37" s="42">
+      <c r="K37" s="34">
         <v>3</v>
       </c>
-      <c r="L37" s="47" t="s">
+      <c r="L37" s="38" t="s">
         <v>219</v>
       </c>
-      <c r="M37" s="44"/>
-      <c r="N37" s="44"/>
-      <c r="O37" s="32"/>
-      <c r="P37" s="32"/>
-      <c r="Q37" s="46" t="s">
+      <c r="M37" s="52"/>
+      <c r="N37" s="52"/>
+      <c r="O37" s="31"/>
+      <c r="P37" s="31"/>
+      <c r="Q37" s="37" t="s">
         <v>235</v>
       </c>
-      <c r="R37" s="48"/>
+      <c r="R37" s="39"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K38" s="49"/>
+      <c r="K38" s="40"/>
       <c r="L38" s="25"/>
       <c r="M38" s="25"/>
-      <c r="N38" s="31" t="s">
+      <c r="N38" s="30" t="s">
         <v>221</v>
       </c>
-      <c r="O38" s="31"/>
-      <c r="P38" s="31"/>
-      <c r="Q38" s="31"/>
-      <c r="R38" s="30"/>
+      <c r="O38" s="30"/>
+      <c r="P38" s="30"/>
+      <c r="Q38" s="30"/>
+      <c r="R38" s="29"/>
     </row>
     <row r="39" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E39" t="s">
         <v>177</v>
       </c>
-      <c r="K39" s="50"/>
-      <c r="L39" s="51"/>
-      <c r="M39" s="51"/>
-      <c r="N39" s="52"/>
-      <c r="O39" s="52"/>
-      <c r="P39" s="52"/>
-      <c r="Q39" s="52"/>
-      <c r="R39" s="53"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="42"/>
+      <c r="M39" s="42"/>
+      <c r="N39" s="43"/>
+      <c r="O39" s="43"/>
+      <c r="P39" s="43"/>
+      <c r="Q39" s="43"/>
+      <c r="R39" s="44"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E40" t="s">
@@ -2353,15 +2384,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="M28:M33"/>
-    <mergeCell ref="N28:N30"/>
-    <mergeCell ref="N31:N33"/>
     <mergeCell ref="M35:N37"/>
     <mergeCell ref="R28:R31"/>
     <mergeCell ref="O25:Q26"/>
     <mergeCell ref="O28:O30"/>
     <mergeCell ref="M34:Q34"/>
     <mergeCell ref="P28:Q33"/>
+    <mergeCell ref="M28:M33"/>
+    <mergeCell ref="N28:N30"/>
+    <mergeCell ref="N31:N33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -2376,8 +2407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7C63BA2-0051-4E59-B639-5D73C864143A}">
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2445,11 +2476,21 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="A3" s="3">
+        <v>20191107</v>
+      </c>
+      <c r="B3" s="3">
+        <v>20191129</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>242</v>
+      </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -2527,7 +2568,7 @@
   <dimension ref="A2:R38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3848,17 +3889,17 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:N9"/>
+  <dimension ref="A2:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7:K9"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="12.109375" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="7" max="7" width="34" customWidth="1"/>
+    <col min="7" max="7" width="41.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -4088,6 +4129,38 @@
       </c>
       <c r="K9" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>20191106</v>
+      </c>
+      <c r="C10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D10" t="s">
+        <v>237</v>
+      </c>
+      <c r="E10" t="s">
+        <v>241</v>
+      </c>
+      <c r="F10" t="s">
+        <v>238</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="H10">
+        <v>63</v>
+      </c>
+      <c r="I10">
+        <v>53</v>
+      </c>
+      <c r="J10">
+        <v>44</v>
+      </c>
+      <c r="K10" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>
